--- a/4-prog-linear/Materiais/ValidacaoAviao.xlsx
+++ b/4-prog-linear/Materiais/ValidacaoAviao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Disciplinas\4 - PO I\Apresentações\1.2 - Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Site\4-prog-linear\Materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A060E6-BD47-47C3-B17C-2CFC47D09EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415050C-03A1-44DF-B456-CD08CBF75BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim1" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,7 +355,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,9 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -381,37 +377,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,47 +706,45 @@
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
@@ -763,20 +757,19 @@
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,12 +779,12 @@
       <c r="E7" s="4">
         <v>600</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>D7/SUM(D7:D9)</f>
         <v>0.3</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,12 +797,11 @@
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,22 +811,23 @@
       <c r="E8" s="4">
         <v>700</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>D8/SUM(D7:D9)</f>
         <v>0.45</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
@@ -844,12 +837,12 @@
       <c r="E9" s="4">
         <v>400</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>D9/SUM(D7:D9)</f>
         <v>0.25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
@@ -862,34 +855,26 @@
       <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
@@ -902,12 +887,11 @@
       <c r="L11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
@@ -920,18 +904,19 @@
       <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -944,11 +929,11 @@
       <c r="F13" s="4">
         <v>320</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2">
         <f>I12+I10+I8</f>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ref="J13:L13" si="0">J12+J10+J8</f>
@@ -962,12 +947,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -980,18 +964,12 @@
       <c r="F14" s="4">
         <v>400</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
       <c r="C15" s="4">
         <v>3</v>
       </c>
@@ -1004,18 +982,12 @@
       <c r="F15" s="4">
         <v>360</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
       <c r="C16" s="4">
         <v>4</v>
       </c>
@@ -1028,167 +1000,147 @@
       <c r="F16" s="4">
         <v>290</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="32" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="27" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
+        <v>4</v>
+      </c>
+      <c r="K18" s="20">
         <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
+        <v>2</v>
+      </c>
+      <c r="L18" s="20">
         <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
+        <v>6</v>
+      </c>
+      <c r="M18" s="20">
         <f>SUM(J18:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
+        <v>100</v>
+      </c>
+      <c r="K19" s="20">
         <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
+        <v>50</v>
+      </c>
+      <c r="L19" s="20">
         <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
+        <v>150</v>
+      </c>
+      <c r="M19" s="20">
         <f>SUM(J19:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="31" t="e">
+      <c r="J20" s="26">
         <f>J18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="31" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K20" s="26">
         <f>K18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="31" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L20" s="26">
         <f>L18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18"/>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1204,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A606FD1-A2F5-42A9-BA01-F8D34476AA6E}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1222,47 +1174,45 @@
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1275,20 +1225,19 @@
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1298,12 +1247,12 @@
       <c r="E7" s="4">
         <v>600</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>D7/SUM(D7:D9)</f>
         <v>0.3</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,12 +1265,11 @@
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1331,30 +1279,29 @@
       <c r="E8" s="4">
         <v>700</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>D8/SUM(D7:D9)</f>
         <v>0.45</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="24">
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="21">
         <v>0.6</v>
       </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,12 +1311,12 @@
       <c r="E9" s="4">
         <v>400</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>D9/SUM(D7:D9)</f>
         <v>0.25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1382,42 +1329,32 @@
       <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="24">
+      <c r="M9" s="23"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="21">
         <v>0.4</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="21">
         <v>0.625</v>
       </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1430,12 +1367,11 @@
       <c r="L11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1448,26 +1384,25 @@
       <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <v>0.375</v>
       </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
         <v>0.307</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -1480,8 +1415,8 @@
       <c r="F13" s="4">
         <v>320</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2">
         <f>I12+I10+I8</f>
         <v>1</v>
@@ -1498,12 +1433,11 @@
         <f t="shared" si="0"/>
         <v>0.307</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -1516,18 +1450,12 @@
       <c r="F14" s="4">
         <v>400</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
       <c r="C15" s="4">
         <v>3</v>
       </c>
@@ -1540,18 +1468,12 @@
       <c r="F15" s="4">
         <v>360</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
       <c r="C16" s="4">
         <v>4</v>
       </c>
@@ -1564,167 +1486,147 @@
       <c r="F16" s="4">
         <v>290</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="32" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="27" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
         <v>12</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
         <v>18</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <f>SUM(J18:L18)</f>
         <v>39.991</v>
       </c>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="26" t="s">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
         <v>300</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
         <v>637.5</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
         <v>385.3</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <f>SUM(J19:L19)</f>
         <v>1322.8</v>
       </c>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="30" t="s">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="26">
         <f>J18/SUM(J18:L18)</f>
         <v>0.30006751519091795</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="26">
         <f>K18/SUM(J18:L18)</f>
         <v>0.45010127278637696</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="26">
         <f>L18/SUM(J18:L18)</f>
         <v>0.24983121202270511</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
         <v>809.03</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1740,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4E98CF-3840-45A6-A27D-C8106022409D}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:M12"/>
@@ -1758,47 +1660,45 @@
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1811,20 +1711,19 @@
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1834,12 +1733,12 @@
       <c r="E7" s="4">
         <v>600</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>D7/SUM(D7:D9)</f>
         <v>0.3</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,12 +1751,11 @@
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1867,22 +1765,21 @@
       <c r="E8" s="4">
         <v>700</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>D8/SUM(D7:D9)</f>
         <v>0.45</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1892,12 +1789,12 @@
       <c r="E9" s="4">
         <v>400</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>D9/SUM(D7:D9)</f>
         <v>0.25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1910,34 +1807,24 @@
       <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1950,12 +1837,11 @@
       <c r="L11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1968,18 +1854,17 @@
       <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -1992,8 +1877,8 @@
       <c r="F13" s="4">
         <v>320</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2">
         <f>I12+I10+I8</f>
         <v>0</v>
@@ -2010,12 +1895,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -2028,18 +1912,12 @@
       <c r="F14" s="4">
         <v>400</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
       <c r="C15" s="4">
         <v>3</v>
       </c>
@@ -2052,18 +1930,12 @@
       <c r="F15" s="4">
         <v>360</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
       <c r="C16" s="4">
         <v>4</v>
       </c>
@@ -2076,167 +1948,148 @@
       <c r="F16" s="4">
         <v>290</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="32" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="27" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <f>SUM(J18:L18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="26" t="s">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
         <v>0</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
         <v>0</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
         <v>0</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <f>SUM(J19:L19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="30" t="s">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="31" t="e">
+      <c r="J20" s="26" t="e">
         <f>J18/SUM(J18:L18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="31" t="e">
+      <c r="K20" s="26" t="e">
         <f>K18/SUM(J18:L18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="31" t="e">
+      <c r="L20" s="26" t="e">
         <f>L18/SUM(J18:L18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
         <v>0</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18"/>
+      <c r="K21" s="24"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/4-prog-linear/Materiais/ValidacaoAviao.xlsx
+++ b/4-prog-linear/Materiais/ValidacaoAviao.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Site\4-prog-linear\Materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x-eco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415050C-03A1-44DF-B456-CD08CBF75BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCCEDE-2ECD-49A8-B78D-934F42019730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sim2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sim3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Anterior</t>
   </si>
@@ -337,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,7 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,7 +409,75 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -690,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,21 +777,21 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
@@ -759,12 +824,12 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="22"/>
       <c r="N6" s="13"/>
     </row>
@@ -817,9 +882,7 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="21">
-        <v>0.2</v>
-      </c>
+      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -862,9 +925,7 @@
       <c r="B10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="21">
-        <v>0.1</v>
-      </c>
+      <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -906,9 +967,7 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="21">
-        <v>0.3</v>
-      </c>
+      <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -933,7 +992,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="2">
         <f>I12+I10+I8</f>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ref="J13:L13" si="0">J12+J10+J8</f>
@@ -1002,12 +1061,12 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="22"/>
       <c r="N16" s="13"/>
     </row>
@@ -1041,30 +1100,30 @@
       </c>
       <c r="J18" s="20">
         <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20">
         <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="20">
         <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" s="20">
         <f>SUM(J18:L18)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
@@ -1072,44 +1131,44 @@
       </c>
       <c r="J19" s="20">
         <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" s="20">
         <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L19" s="20">
         <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M19" s="20">
         <f>SUM(J19:L19)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="13"/>
       <c r="H20" s="12"/>
       <c r="I20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="26">
-        <f>J18/SUM(J18:L18)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K20" s="26">
-        <f>K18/SUM(J18:L18)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L20" s="26">
-        <f>L18/SUM(J18:L18)</f>
-        <v>0.5</v>
+      <c r="J20" s="26" t="str">
+        <f>IFERROR(J18/SUM(J18:L18),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f>IFERROR(K18/SUM(J18:L18),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="26" t="str">
+        <f>IFERROR(L18/SUM(J18:L18),"")</f>
+        <v/>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="13"/>
@@ -1123,7 +1182,7 @@
       </c>
       <c r="J21" s="19">
         <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
-        <v>192.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="N21" s="13"/>
     </row>
@@ -1149,955 +1208,39 @@
     <mergeCell ref="C19:F20"/>
     <mergeCell ref="B4:N4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A606FD1-A2F5-42A9-BA01-F8D34476AA6E}">
-  <dimension ref="B2:N22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>600</v>
-      </c>
-      <c r="F7" s="8">
-        <f>D7/SUM(D7:D9)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>700</v>
-      </c>
-      <c r="F8" s="8">
-        <f>D8/SUM(D7:D9)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>400</v>
-      </c>
-      <c r="F9" s="8">
-        <f>D9/SUM(D7:D9)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.625</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0.375</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0.307</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>320</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="2">
-        <f>I12+I10+I8</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" ref="J13:L13" si="0">J12+J10+J8</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.307</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4">
-        <v>700</v>
-      </c>
-      <c r="F14" s="4">
-        <v>400</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <v>600</v>
-      </c>
-      <c r="F15" s="4">
-        <v>360</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4">
-        <v>400</v>
-      </c>
-      <c r="F16" s="4">
-        <v>290</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="20">
-        <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
-        <v>12</v>
-      </c>
-      <c r="K18" s="20">
-        <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
-        <v>18</v>
-      </c>
-      <c r="L18" s="20">
-        <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
-        <v>9.9909999999999997</v>
-      </c>
-      <c r="M18" s="20">
-        <f>SUM(J18:L18)</f>
-        <v>39.991</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="20">
-        <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
-        <v>300</v>
-      </c>
-      <c r="K19" s="20">
-        <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
-        <v>637.5</v>
-      </c>
-      <c r="L19" s="20">
-        <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
-        <v>385.3</v>
-      </c>
-      <c r="M19" s="20">
-        <f>SUM(J19:L19)</f>
-        <v>1322.8</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="26">
-        <f>J18/SUM(J18:L18)</f>
-        <v>0.30006751519091795</v>
-      </c>
-      <c r="K20" s="26">
-        <f>K18/SUM(J18:L18)</f>
-        <v>0.45010127278637696</v>
-      </c>
-      <c r="L20" s="26">
-        <f>L18/SUM(J18:L18)</f>
-        <v>0.24983121202270511</v>
-      </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="19">
-        <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
-        <v>809.03</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C19:F20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4E98CF-3840-45A6-A27D-C8106022409D}">
-  <dimension ref="B2:N22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>600</v>
-      </c>
-      <c r="F7" s="8">
-        <f>D7/SUM(D7:D9)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>700</v>
-      </c>
-      <c r="F8" s="8">
-        <f>D8/SUM(D7:D9)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>400</v>
-      </c>
-      <c r="F9" s="8">
-        <f>D9/SUM(D7:D9)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>320</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="2">
-        <f>I12+I10+I8</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" ref="J13:L13" si="0">J12+J10+J8</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4">
-        <v>700</v>
-      </c>
-      <c r="F14" s="4">
-        <v>400</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <v>600</v>
-      </c>
-      <c r="F15" s="4">
-        <v>360</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4">
-        <v>400</v>
-      </c>
-      <c r="F16" s="4">
-        <v>290</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="20">
-        <f>I8*D13+J8*D14+K8*D15+L8*D16</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <f>I10*D13+J10*D14+K10*D15+L10*D16</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
-        <f>I12*D13+J12*D14+K12*D15+L12*D16</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="20">
-        <f>SUM(J18:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="20">
-        <f>I8*E13+J8*E14+K8*E15+L8*E16</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20">
-        <f>I10*E13+J10*E14+K10*E15+L10*E16</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="20">
-        <f>I12*E13+J12*E14+K12*E15+L12*E16</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="20">
-        <f>SUM(J19:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="26" t="e">
-        <f>J18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="26" t="e">
-        <f>K18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="26" t="e">
-        <f>L18/SUM(J18:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="19">
-        <f>(I8+I10+I12)*F13+(J8+J10+J12)*F14+(K8+K10+K12)*F15+(L8+L10+L12)*F16</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="24"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C19:F20"/>
-  </mergeCells>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>"&gt;$D$7"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>$D$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>$D$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$D$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
